--- a/Контрольные на 6-й семестр/03_Логистика/!_КР/Расчеты.xlsx
+++ b/Контрольные на 6-й семестр/03_Логистика/!_КР/Расчеты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
@@ -1611,6 +1611,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1627,12 +1633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1741,11 +1741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122431360"/>
-        <c:axId val="122440320"/>
+        <c:axId val="102107776"/>
+        <c:axId val="125293312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122431360"/>
+        <c:axId val="102107776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +1774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122440320"/>
+        <c:crossAx val="125293312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1782,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122440320"/>
+        <c:axId val="125293312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122431360"/>
+        <c:crossAx val="102107776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2003,11 +2003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147344768"/>
-        <c:axId val="147371520"/>
+        <c:axId val="127290368"/>
+        <c:axId val="127317120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147344768"/>
+        <c:axId val="127290368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,7 +2036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147371520"/>
+        <c:crossAx val="127317120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2044,7 +2044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147371520"/>
+        <c:axId val="127317120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147344768"/>
+        <c:crossAx val="127290368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2224,11 +2224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147257600"/>
-        <c:axId val="147849600"/>
+        <c:axId val="127199104"/>
+        <c:axId val="127201280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147257600"/>
+        <c:axId val="127199104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147849600"/>
+        <c:crossAx val="127201280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2264,7 +2264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147849600"/>
+        <c:axId val="127201280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147257600"/>
+        <c:crossAx val="127199104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2482,11 +2482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147887232"/>
-        <c:axId val="147889152"/>
+        <c:axId val="127841024"/>
+        <c:axId val="127842944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147887232"/>
+        <c:axId val="127841024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,7 +2514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147889152"/>
+        <c:crossAx val="127842944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2522,7 +2522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147889152"/>
+        <c:axId val="127842944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,7 +2551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147887232"/>
+        <c:crossAx val="127841024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2853,11 +2853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147835136"/>
-        <c:axId val="147984768"/>
+        <c:axId val="127777024"/>
+        <c:axId val="127791488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147835136"/>
+        <c:axId val="127777024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,14 +2885,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147984768"/>
+        <c:crossAx val="127791488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2900,7 +2899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147984768"/>
+        <c:axId val="127791488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,21 +2922,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147835136"/>
+        <c:crossAx val="127777024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3214,11 +3211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148716160"/>
-        <c:axId val="148718336"/>
+        <c:axId val="130763008"/>
+        <c:axId val="130769280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148716160"/>
+        <c:axId val="130763008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3242,14 +3239,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148718336"/>
+        <c:crossAx val="130769280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3257,7 +3253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148718336"/>
+        <c:axId val="130769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,21 +3278,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148716160"/>
+        <c:crossAx val="130763008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3554,11 +3548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148748544"/>
-        <c:axId val="148758912"/>
+        <c:axId val="130805760"/>
+        <c:axId val="130807680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148748544"/>
+        <c:axId val="130805760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,14 +3576,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148758912"/>
+        <c:crossAx val="130807680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3597,7 +3590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148758912"/>
+        <c:axId val="130807680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,21 +3615,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148748544"/>
+        <c:crossAx val="130805760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3915,11 +3906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148803968"/>
-        <c:axId val="148805888"/>
+        <c:axId val="130846720"/>
+        <c:axId val="130848640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148803968"/>
+        <c:axId val="130846720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +3940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148805888"/>
+        <c:crossAx val="130848640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3957,7 +3948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148805888"/>
+        <c:axId val="130848640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +3979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148803968"/>
+        <c:crossAx val="130846720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5318,7 +5309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
@@ -5907,53 +5898,53 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="62">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="62">
         <v>1.4910000000000001</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="62">
         <f>SUM(E21:E26)</f>
         <v>38700</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="62">
         <v>14553.33</v>
       </c>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="60">
         <f>SUM(J21:J26)</f>
         <v>2.4499999999999997</v>
       </c>
-      <c r="K27" s="58">
+      <c r="K27" s="60">
         <f>SUM(K21:K26)</f>
         <v>1.4913888888888889</v>
       </c>
-      <c r="L27" s="60">
+      <c r="L27" s="62">
         <f>SUM(L21:L26)</f>
         <v>55500</v>
       </c>
-      <c r="M27" s="60">
+      <c r="M27" s="62">
         <f>SUM(M21:M26)</f>
         <v>21413.333333333332</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7659,7 +7650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -7847,62 +7838,62 @@
       <c r="B28" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="58">
         <f>$C$1*$C$2/C27</f>
         <v>179.685</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="58">
         <f>$C$1*$C$2/D27</f>
         <v>89.842500000000001</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="58">
         <f>$C$1*$C$2/E27</f>
         <v>44.921250000000001</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="58">
         <f t="shared" ref="F28:I28" si="0">$C$1*$C$2/F27</f>
         <v>35.936999999999998</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="58">
         <f t="shared" si="0"/>
         <v>29.947500000000002</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="58">
         <f t="shared" si="0"/>
         <v>22.460625</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="58">
         <f t="shared" si="0"/>
         <v>17.968499999999999</v>
       </c>
       <c r="J28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="64">
+      <c r="L28" s="58">
         <f>$D$1*$D$2/C27</f>
         <v>213.465</v>
       </c>
-      <c r="M28" s="64">
+      <c r="M28" s="58">
         <f t="shared" ref="M28:R28" si="1">$D$1*$D$2/D27</f>
         <v>106.7325</v>
       </c>
-      <c r="N28" s="64">
+      <c r="N28" s="58">
         <f t="shared" si="1"/>
         <v>53.366250000000001</v>
       </c>
-      <c r="O28" s="64">
+      <c r="O28" s="58">
         <f t="shared" si="1"/>
         <v>42.692999999999998</v>
       </c>
-      <c r="P28" s="64">
+      <c r="P28" s="58">
         <f t="shared" si="1"/>
         <v>35.577500000000001</v>
       </c>
-      <c r="Q28" s="64">
+      <c r="Q28" s="58">
         <f t="shared" si="1"/>
         <v>26.683125</v>
       </c>
-      <c r="R28" s="64">
+      <c r="R28" s="58">
         <f t="shared" si="1"/>
         <v>21.346499999999999</v>
       </c>
@@ -7942,31 +7933,31 @@
       <c r="J29" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="L29" s="65">
+      <c r="L29" s="59">
         <f>$D$3*C27/2</f>
         <v>70</v>
       </c>
-      <c r="M29" s="65">
+      <c r="M29" s="59">
         <f t="shared" ref="M29:R29" si="3">$D$3*D27/2</f>
         <v>140</v>
       </c>
-      <c r="N29" s="65">
+      <c r="N29" s="59">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="O29" s="65">
+      <c r="O29" s="59">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="P29" s="65">
+      <c r="P29" s="59">
         <f t="shared" si="3"/>
         <v>420</v>
       </c>
-      <c r="Q29" s="65">
+      <c r="Q29" s="59">
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
-      <c r="R29" s="65">
+      <c r="R29" s="59">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
@@ -8003,31 +7994,31 @@
         <f t="shared" si="4"/>
         <v>117.96850000000001</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="58">
         <f>SUM(L28:L29)</f>
         <v>283.46500000000003</v>
       </c>
-      <c r="M30" s="64">
+      <c r="M30" s="58">
         <f t="shared" ref="M30:R30" si="5">SUM(M28:M29)</f>
         <v>246.73250000000002</v>
       </c>
-      <c r="N30" s="64">
+      <c r="N30" s="58">
         <f t="shared" si="5"/>
         <v>333.36624999999998</v>
       </c>
-      <c r="O30" s="64">
+      <c r="O30" s="58">
         <f t="shared" si="5"/>
         <v>392.69299999999998</v>
       </c>
-      <c r="P30" s="64">
+      <c r="P30" s="58">
         <f t="shared" si="5"/>
         <v>455.57749999999999</v>
       </c>
-      <c r="Q30" s="64">
+      <c r="Q30" s="58">
         <f t="shared" si="5"/>
         <v>586.68312500000002</v>
       </c>
-      <c r="R30" s="64">
+      <c r="R30" s="58">
         <f t="shared" si="5"/>
         <v>721.34649999999999</v>
       </c>
